--- a/data/reg_dif_med_results/difmedias_entre_anos_2019x2023.xlsx
+++ b/data/reg_dif_med_results/difmedias_entre_anos_2019x2023.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="924" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="938" uniqueCount="221">
   <si>
     <t/>
   </si>
@@ -213,7 +213,10 @@
     <t>actividad_economica1_d19</t>
   </si>
   <si>
-    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab estrato edad limitaciones_fisicas mujer total_personas total_personas_mas_5 nivel_educativo_d* tipo_vivienda_d* ocupacion1_d* actividad_economica1_d* , groupvar(a2019) control(0) savexlsx(difmedias_entre_anos_2019x2023) replace] </t>
+    <t>nivel_educativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab estrato edad limitaciones_fisicas mujer total_personas total_personas_mas_5 nivel_educativo_d* tipo_vivienda_d* ocupacion1_d* actividad_economica1_d* nivel_educativo , groupvar(a2019) control(0) savexlsx(difmedias_entre_anos_2019x2023) replace] </t>
   </si>
   <si>
     <t>N</t>
@@ -390,10 +393,16 @@
     <t>0.017</t>
   </si>
   <si>
-    <t>16746</t>
-  </si>
-  <si>
-    <t>17614</t>
+    <t>6.082</t>
+  </si>
+  <si>
+    <t>(0.017)</t>
+  </si>
+  <si>
+    <t>16748</t>
+  </si>
+  <si>
+    <t>17616</t>
   </si>
   <si>
     <t>13516</t>
@@ -411,7 +420,7 @@
     <t>(0.008)</t>
   </si>
   <si>
-    <t>39.314</t>
+    <t>39.307</t>
   </si>
   <si>
     <t>(0.574)</t>
@@ -441,7 +450,7 @@
     <t>0.148</t>
   </si>
   <si>
-    <t>0.197</t>
+    <t>0.198</t>
   </si>
   <si>
     <t>0.025</t>
@@ -453,7 +462,7 @@
     <t>0.069</t>
   </si>
   <si>
-    <t>0.201</t>
+    <t>0.200</t>
   </si>
   <si>
     <t>0.009</t>
@@ -513,22 +522,28 @@
     <t>0.053</t>
   </si>
   <si>
-    <t>0.328</t>
+    <t>0.329</t>
   </si>
   <si>
     <t>0.041</t>
   </si>
   <si>
-    <t>32398</t>
-  </si>
-  <si>
-    <t>38282</t>
+    <t>6.660</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>32400</t>
+  </si>
+  <si>
+    <t>38284</t>
   </si>
   <si>
     <t>34184</t>
   </si>
   <si>
-    <t>38278</t>
+    <t>38280</t>
   </si>
   <si>
     <t>(2)-(1)</t>
@@ -543,7 +558,7 @@
     <t>0.107***</t>
   </si>
   <si>
-    <t>0.334</t>
+    <t>0.327</t>
   </si>
   <si>
     <t>-0.006***</t>
@@ -612,9 +627,6 @@
     <t>-0.094***</t>
   </si>
   <si>
-    <t>0.004*</t>
-  </si>
-  <si>
     <t>0.004***</t>
   </si>
   <si>
@@ -639,7 +651,7 @@
     <t>-0.005***</t>
   </si>
   <si>
-    <t>0.055***</t>
+    <t>0.056***</t>
   </si>
   <si>
     <t>-0.001</t>
@@ -661,6 +673,9 @@
   </si>
   <si>
     <t>0.024***</t>
+  </si>
+  <si>
+    <t>0.578***</t>
   </si>
 </sst>
 </file>
@@ -704,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
@@ -741,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
@@ -761,22 +776,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -784,22 +799,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -810,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -830,22 +845,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -856,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -876,22 +891,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -902,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -922,22 +937,22 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
@@ -948,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -968,22 +983,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13">
@@ -994,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1014,22 +1029,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
@@ -1040,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -1060,22 +1075,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -1086,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -1106,22 +1121,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -1132,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -1152,22 +1167,22 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -1178,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -1198,22 +1213,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
@@ -1224,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -1244,22 +1259,22 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -1270,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
@@ -1290,22 +1305,22 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
@@ -1316,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -1336,22 +1351,22 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1362,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
@@ -1382,22 +1397,22 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
@@ -1408,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
@@ -1428,22 +1443,22 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33">
@@ -1454,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -1474,22 +1489,22 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
@@ -1500,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -1520,22 +1535,22 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
@@ -1546,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -1566,22 +1581,22 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39">
@@ -1592,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -1612,22 +1627,22 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41">
@@ -1638,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -1658,22 +1673,22 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43">
@@ -1684,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -1704,22 +1719,22 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G44" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45">
@@ -1730,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
@@ -1750,22 +1765,22 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47">
@@ -1776,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
@@ -1796,22 +1811,22 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G48" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49">
@@ -1822,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
@@ -1842,22 +1857,22 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51">
@@ -1868,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -1888,22 +1903,22 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
@@ -1934,22 +1949,22 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G54" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55">
@@ -1960,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
@@ -1980,22 +1995,22 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G56" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
@@ -2006,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -2026,22 +2041,22 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G58" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59">
@@ -2052,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -2072,22 +2087,22 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61">
@@ -2098,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2118,22 +2133,22 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G62" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63">
@@ -2144,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
@@ -2164,22 +2179,22 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G64" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65">
@@ -2190,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
@@ -2210,22 +2225,22 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E66" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G66" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67">
@@ -2236,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
@@ -2256,22 +2271,22 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G68" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
@@ -2282,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -2302,22 +2317,22 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F70" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G70" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71">
@@ -2328,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -2348,22 +2363,22 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73">
@@ -2374,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -2394,22 +2409,22 @@
         <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G74" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75">
@@ -2420,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -2440,22 +2455,22 @@
         <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F76" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G76" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77">
@@ -2466,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
@@ -2486,22 +2501,22 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79">
@@ -2512,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
@@ -2532,22 +2547,22 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F80" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
@@ -2558,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -2578,22 +2593,22 @@
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G82" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83">
@@ -2604,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
@@ -2624,22 +2639,22 @@
         <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G84" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
@@ -2650,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -2670,22 +2685,22 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F86" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G86" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -2696,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -2716,22 +2731,22 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
@@ -2742,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -2762,22 +2777,22 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G90" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -2788,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D91" t="s">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -2808,22 +2823,22 @@
         <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G92" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93">
@@ -2834,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -2854,22 +2869,22 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F94" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G94" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95">
@@ -2880,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -2900,22 +2915,22 @@
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G96" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97">
@@ -2926,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D97" t="s">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -2946,22 +2961,22 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F98" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G98" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
@@ -2972,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -2992,22 +3007,22 @@
         <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F100" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G100" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
@@ -3018,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D101" t="s">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3038,22 +3053,22 @@
         <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F102" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G102" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
@@ -3064,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
@@ -3084,22 +3099,22 @@
         <v>52</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E104" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F104" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G104" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
@@ -3110,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D105" t="s">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
@@ -3130,22 +3145,22 @@
         <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E106" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F106" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G106" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107">
@@ -3156,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D107" t="s">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -3176,22 +3191,22 @@
         <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E108" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G108" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109">
@@ -3202,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D109" t="s">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
@@ -3222,22 +3237,22 @@
         <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F110" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G110" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111">
@@ -3248,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
@@ -3268,22 +3283,22 @@
         <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E112" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F112" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G112" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113">
@@ -3294,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D113" t="s">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
@@ -3314,22 +3329,22 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E114" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F114" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G114" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115">
@@ -3340,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D115" t="s">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
@@ -3360,22 +3375,22 @@
         <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E116" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F116" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G116" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117">
@@ -3386,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -3406,22 +3421,22 @@
         <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E118" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F118" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G118" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119">
@@ -3432,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D119" t="s">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
@@ -3452,22 +3467,22 @@
         <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E120" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F120" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G120" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121">
@@ -3478,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D121" t="s">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
@@ -3498,22 +3513,22 @@
         <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F122" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G122" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123">
@@ -3524,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D123" t="s">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
@@ -3544,22 +3559,22 @@
         <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D124" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E124" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F124" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G124" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125">
@@ -3570,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D125" t="s">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F125" t="s">
         <v>0</v>
@@ -3590,22 +3605,22 @@
         <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D126" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F126" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G126" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127">
@@ -3616,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F127" t="s">
         <v>0</v>
@@ -3636,22 +3651,22 @@
         <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C128" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F128" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G128" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129">
@@ -3662,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D129" t="s">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F129" t="s">
         <v>0</v>
@@ -3682,22 +3697,22 @@
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F130" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G130" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131">
@@ -3708,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D131" t="s">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F131" t="s">
         <v>0</v>
@@ -3728,21 +3743,67 @@
         <v>66</v>
       </c>
       <c r="B132" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C132" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D132" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E132" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F132" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="G132" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data/reg_dif_med_results/difmedias_entre_anos_2019x2023.xlsx
+++ b/data/reg_dif_med_results/difmedias_entre_anos_2019x2023.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="938" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="868" uniqueCount="212">
   <si>
     <t/>
   </si>
@@ -114,18 +114,6 @@
     <t>ocupacion1_d13</t>
   </si>
   <si>
-    <t>ocupacion1_d14</t>
-  </si>
-  <si>
-    <t>ocupacion1_d15</t>
-  </si>
-  <si>
-    <t>ocupacion1_d16</t>
-  </si>
-  <si>
-    <t>ocupacion1_d17</t>
-  </si>
-  <si>
     <t>ocupacion1_d18</t>
   </si>
   <si>
@@ -213,22 +201,19 @@
     <t>actividad_economica1_d19</t>
   </si>
   <si>
-    <t>nivel_educativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab estrato edad limitaciones_fisicas mujer total_personas total_personas_mas_5 nivel_educativo_d* tipo_vivienda_d* ocupacion1_d* actividad_economica1_d* nivel_educativo , groupvar(a2019) control(0) savexlsx(difmedias_entre_anos_2019x2023) replace] </t>
+    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab estrato edad limitaciones_fisicas mujer total_personas total_personas_mas_5 nivel_educativo_d* tipo_vivienda_d* ocupacion1_d* actividad_economica1_d* , groupvar(a2019) control(0) savexlsx(difmedias_entre_anos_2019x2023) replace] </t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>15652</t>
-  </si>
-  <si>
-    <t>20668</t>
-  </si>
-  <si>
-    <t>20664</t>
+    <t>15650</t>
+  </si>
+  <si>
+    <t>20666</t>
+  </si>
+  <si>
+    <t>20662</t>
   </si>
   <si>
     <t xml:space="preserve"> (1) </t>
@@ -246,7 +231,7 @@
     <t>(0.009)</t>
   </si>
   <si>
-    <t>38.980</t>
+    <t>38.978</t>
   </si>
   <si>
     <t>(0.092)</t>
@@ -342,159 +327,159 @@
     <t>0.001</t>
   </si>
   <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
     <t>0.005</t>
   </si>
   <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.030</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>16740</t>
+  </si>
+  <si>
+    <t>17608</t>
+  </si>
+  <si>
+    <t>13509</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (2) </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2.642</t>
+  </si>
+  <si>
+    <t>(0.008)</t>
+  </si>
+  <si>
+    <t>39.315</t>
+  </si>
+  <si>
+    <t>(0.574)</t>
+  </si>
+  <si>
+    <t>0.451</t>
+  </si>
+  <si>
+    <t>(0.004)</t>
+  </si>
+  <si>
+    <t>3.788</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>3.586</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
     <t>0.008</t>
   </si>
   <si>
-    <t>0.010</t>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.033</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.030</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>6.082</t>
-  </si>
-  <si>
-    <t>(0.017)</t>
-  </si>
-  <si>
-    <t>16748</t>
-  </si>
-  <si>
-    <t>17616</t>
-  </si>
-  <si>
-    <t>13516</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (2) </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2.642</t>
-  </si>
-  <si>
-    <t>(0.008)</t>
-  </si>
-  <si>
-    <t>39.307</t>
-  </si>
-  <si>
-    <t>(0.574)</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>(0.004)</t>
-  </si>
-  <si>
-    <t>3.789</t>
-  </si>
-  <si>
-    <t>(0.012)</t>
-  </si>
-  <si>
-    <t>3.587</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.069</t>
-  </si>
-  <si>
-    <t>0.200</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>0.111</t>
-  </si>
-  <si>
-    <t>0.480</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.155</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
     <t>0.013</t>
   </si>
   <si>
@@ -519,31 +504,28 @@
     <t>0.034</t>
   </si>
   <si>
+    <t>0.068</t>
+  </si>
+  <si>
     <t>0.053</t>
   </si>
   <si>
-    <t>0.329</t>
+    <t>0.328</t>
   </si>
   <si>
     <t>0.041</t>
   </si>
   <si>
-    <t>6.660</t>
-  </si>
-  <si>
-    <t>(0.020)</t>
-  </si>
-  <si>
-    <t>32400</t>
-  </si>
-  <si>
-    <t>38284</t>
-  </si>
-  <si>
-    <t>34184</t>
-  </si>
-  <si>
-    <t>38280</t>
+    <t>32390</t>
+  </si>
+  <si>
+    <t>38274</t>
+  </si>
+  <si>
+    <t>34175</t>
+  </si>
+  <si>
+    <t>38270</t>
   </si>
   <si>
     <t>(2)-(1)</t>
@@ -558,19 +540,19 @@
     <t>0.107***</t>
   </si>
   <si>
-    <t>0.327</t>
+    <t>0.337</t>
   </si>
   <si>
     <t>-0.006***</t>
   </si>
   <si>
-    <t>0.027***</t>
-  </si>
-  <si>
-    <t>0.218***</t>
-  </si>
-  <si>
-    <t>0.147***</t>
+    <t>0.028***</t>
+  </si>
+  <si>
+    <t>0.217***</t>
+  </si>
+  <si>
+    <t>0.146***</t>
   </si>
   <si>
     <t>0.010***</t>
@@ -588,7 +570,7 @@
     <t>-0.004**</t>
   </si>
   <si>
-    <t>0.037***</t>
+    <t>0.038***</t>
   </si>
   <si>
     <t>0.012***</t>
@@ -630,10 +612,7 @@
     <t>0.004***</t>
   </si>
   <si>
-    <t>0.031***</t>
-  </si>
-  <si>
-    <t>0.013***</t>
+    <t>0.063***</t>
   </si>
   <si>
     <t>0.071***</t>
@@ -663,19 +642,13 @@
     <t>0.015***</t>
   </si>
   <si>
-    <t>0.038***</t>
-  </si>
-  <si>
     <t>-0.145***</t>
   </si>
   <si>
     <t>0.008***</t>
   </si>
   <si>
-    <t>0.024***</t>
-  </si>
-  <si>
-    <t>0.578***</t>
+    <t>0.023***</t>
   </si>
 </sst>
 </file>
@@ -719,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -733,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -756,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -776,22 +749,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -799,22 +772,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -825,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -845,22 +818,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
@@ -871,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -891,22 +864,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -917,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -937,22 +910,22 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -963,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -983,22 +956,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
@@ -1009,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1029,22 +1002,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
@@ -1055,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -1075,22 +1048,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -1101,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -1121,22 +1094,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -1147,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -1167,22 +1140,22 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -1193,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -1213,22 +1186,22 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -1239,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -1259,22 +1232,22 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
@@ -1285,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
@@ -1305,22 +1278,22 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -1331,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -1351,22 +1324,22 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -1377,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
@@ -1397,22 +1370,22 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
@@ -1423,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
@@ -1443,22 +1416,22 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
@@ -1469,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -1489,22 +1462,22 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
@@ -1515,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -1535,22 +1508,22 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1561,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -1581,22 +1554,22 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -1607,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -1627,22 +1600,22 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41">
@@ -1653,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -1673,22 +1646,22 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43">
@@ -1699,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -1719,22 +1692,22 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45">
@@ -1745,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
@@ -1765,22 +1738,22 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47">
@@ -1791,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
@@ -1811,22 +1784,22 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49">
@@ -1837,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
@@ -1857,22 +1830,22 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51">
@@ -1883,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -1903,22 +1876,22 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G52" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53">
@@ -1929,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
@@ -1949,22 +1922,22 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55">
@@ -1975,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
@@ -1995,22 +1968,22 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
@@ -2021,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -2041,22 +2014,22 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59">
@@ -2067,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -2087,22 +2060,22 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G60" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61">
@@ -2113,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2133,22 +2106,22 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G62" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63">
@@ -2159,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
@@ -2179,19 +2152,19 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F64" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G64" t="s">
         <v>199</v>
@@ -2205,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
@@ -2225,22 +2198,22 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -2251,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
@@ -2271,22 +2244,22 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69">
@@ -2297,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -2317,22 +2290,22 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F70" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71">
@@ -2343,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -2363,22 +2336,22 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G72" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
@@ -2389,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -2409,22 +2382,22 @@
         <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G74" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75">
@@ -2435,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -2455,22 +2428,22 @@
         <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77">
@@ -2481,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
@@ -2501,22 +2474,22 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G78" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -2527,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
@@ -2547,22 +2520,22 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G80" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -2573,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -2593,22 +2566,22 @@
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
@@ -2619,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
@@ -2639,22 +2612,22 @@
         <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G84" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85">
@@ -2665,13 +2638,13 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -2685,22 +2658,22 @@
         <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G86" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
@@ -2711,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -2731,22 +2704,22 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G88" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89">
@@ -2757,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D89" t="s">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -2777,22 +2750,22 @@
         <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91">
@@ -2803,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D91" t="s">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -2823,22 +2796,22 @@
         <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G92" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
@@ -2849,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -2869,22 +2842,22 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -2895,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -2915,22 +2888,22 @@
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G96" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
@@ -2941,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -2961,22 +2934,22 @@
         <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="F98" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G98" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
@@ -2987,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -3007,22 +2980,22 @@
         <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F100" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G100" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101">
@@ -3033,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3053,22 +3026,22 @@
         <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="F102" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G102" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103">
@@ -3079,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D103" t="s">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
@@ -3099,22 +3072,22 @@
         <v>52</v>
       </c>
       <c r="B104" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C104" t="s">
         <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F104" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G104" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105">
@@ -3125,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D105" t="s">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
@@ -3145,22 +3118,22 @@
         <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E106" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F106" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G106" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
@@ -3171,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -3191,22 +3164,22 @@
         <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="F108" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G108" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109">
@@ -3217,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D109" t="s">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
@@ -3237,22 +3210,22 @@
         <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D110" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E110" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G110" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111">
@@ -3263,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
@@ -3283,22 +3256,22 @@
         <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E112" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F112" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G112" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113">
@@ -3309,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D113" t="s">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
@@ -3329,19 +3302,19 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F114" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G114" t="s">
         <v>209</v>
@@ -3355,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D115" t="s">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
@@ -3375,22 +3348,22 @@
         <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F116" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G116" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117">
@@ -3401,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D117" t="s">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -3421,22 +3394,22 @@
         <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D118" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F118" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G118" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119">
@@ -3447,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D119" t="s">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
@@ -3467,22 +3440,22 @@
         <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E120" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G120" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121">
@@ -3493,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D121" t="s">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
@@ -3513,22 +3486,22 @@
         <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D122" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E122" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G122" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123">
@@ -3539,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D123" t="s">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
@@ -3559,251 +3532,21 @@
         <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>80</v>
-      </c>
-      <c r="D125" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>80</v>
-      </c>
-      <c r="F125" t="s">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>63</v>
-      </c>
-      <c r="B126" t="s">
-        <v>70</v>
-      </c>
-      <c r="C126" t="s">
-        <v>98</v>
-      </c>
-      <c r="D126" t="s">
-        <v>129</v>
-      </c>
-      <c r="E126" t="s">
-        <v>98</v>
-      </c>
-      <c r="F126" t="s">
-        <v>174</v>
-      </c>
-      <c r="G126" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" t="s">
-        <v>88</v>
-      </c>
-      <c r="D127" t="s">
-        <v>0</v>
-      </c>
-      <c r="E127" t="s">
-        <v>88</v>
-      </c>
-      <c r="F127" t="s">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>64</v>
-      </c>
-      <c r="B128" t="s">
-        <v>70</v>
-      </c>
-      <c r="C128" t="s">
-        <v>124</v>
-      </c>
-      <c r="D128" t="s">
-        <v>129</v>
-      </c>
-      <c r="E128" t="s">
-        <v>100</v>
-      </c>
-      <c r="F128" t="s">
-        <v>174</v>
-      </c>
-      <c r="G128" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>88</v>
-      </c>
-      <c r="D129" t="s">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>80</v>
-      </c>
-      <c r="F129" t="s">
-        <v>0</v>
-      </c>
-      <c r="G129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>65</v>
-      </c>
-      <c r="B130" t="s">
-        <v>70</v>
-      </c>
-      <c r="C130" t="s">
-        <v>125</v>
-      </c>
-      <c r="D130" t="s">
-        <v>129</v>
-      </c>
-      <c r="E130" t="s">
-        <v>170</v>
-      </c>
-      <c r="F130" t="s">
-        <v>174</v>
-      </c>
-      <c r="G130" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131" t="s">
-        <v>0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>80</v>
-      </c>
-      <c r="F131" t="s">
-        <v>0</v>
-      </c>
-      <c r="G131" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>66</v>
-      </c>
-      <c r="B132" t="s">
-        <v>70</v>
-      </c>
-      <c r="C132" t="s">
-        <v>126</v>
-      </c>
-      <c r="D132" t="s">
-        <v>129</v>
-      </c>
-      <c r="E132" t="s">
-        <v>171</v>
-      </c>
-      <c r="F132" t="s">
-        <v>174</v>
-      </c>
-      <c r="G132" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>127</v>
-      </c>
-      <c r="D133" t="s">
-        <v>0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>172</v>
-      </c>
-      <c r="F133" t="s">
-        <v>0</v>
-      </c>
-      <c r="G133" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>67</v>
-      </c>
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" t="s">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>0</v>
-      </c>
-      <c r="F134" t="s">
-        <v>0</v>
-      </c>
-      <c r="G134" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data/reg_dif_med_results/difmedias_entre_anos_2019x2023.xlsx
+++ b/data/reg_dif_med_results/difmedias_entre_anos_2019x2023.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="868" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="868" uniqueCount="214">
   <si>
     <t/>
   </si>
@@ -207,13 +207,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>15650</t>
-  </si>
-  <si>
-    <t>20666</t>
-  </si>
-  <si>
-    <t>20662</t>
+    <t>15652</t>
+  </si>
+  <si>
+    <t>20668</t>
+  </si>
+  <si>
+    <t>20664</t>
   </si>
   <si>
     <t xml:space="preserve"> (1) </t>
@@ -231,7 +231,7 @@
     <t>(0.009)</t>
   </si>
   <si>
-    <t>38.978</t>
+    <t>38.979</t>
   </si>
   <si>
     <t>(0.092)</t>
@@ -333,9 +333,6 @@
     <t>0.010</t>
   </si>
   <si>
-    <t>0.011</t>
-  </si>
-  <si>
     <t>0.020</t>
   </si>
   <si>
@@ -378,13 +375,13 @@
     <t>0.004</t>
   </si>
   <si>
-    <t>16740</t>
-  </si>
-  <si>
-    <t>17608</t>
-  </si>
-  <si>
-    <t>13509</t>
+    <t>16751</t>
+  </si>
+  <si>
+    <t>17621</t>
+  </si>
+  <si>
+    <t>13521</t>
   </si>
   <si>
     <t xml:space="preserve"> (2) </t>
@@ -393,31 +390,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>2.642</t>
+    <t>2.641</t>
   </si>
   <si>
     <t>(0.008)</t>
   </si>
   <si>
-    <t>39.315</t>
+    <t>39.320</t>
   </si>
   <si>
     <t>(0.574)</t>
   </si>
   <si>
-    <t>0.451</t>
+    <t>0.450</t>
   </si>
   <si>
     <t>(0.004)</t>
   </si>
   <si>
-    <t>3.788</t>
+    <t>3.790</t>
   </si>
   <si>
     <t>(0.012)</t>
   </si>
   <si>
-    <t>3.586</t>
+    <t>3.588</t>
   </si>
   <si>
     <t>0.042</t>
@@ -441,7 +438,7 @@
     <t>0.069</t>
   </si>
   <si>
-    <t>0.201</t>
+    <t>0.200</t>
   </si>
   <si>
     <t>0.009</t>
@@ -474,7 +471,7 @@
     <t>0.080</t>
   </si>
   <si>
-    <t>0.083</t>
+    <t>0.084</t>
   </si>
   <si>
     <t>0.008</t>
@@ -516,16 +513,16 @@
     <t>0.041</t>
   </si>
   <si>
-    <t>32390</t>
-  </si>
-  <si>
-    <t>38274</t>
-  </si>
-  <si>
-    <t>34175</t>
-  </si>
-  <si>
-    <t>38270</t>
+    <t>32403</t>
+  </si>
+  <si>
+    <t>38289</t>
+  </si>
+  <si>
+    <t>34189</t>
+  </si>
+  <si>
+    <t>38285</t>
   </si>
   <si>
     <t>(2)-(1)</t>
@@ -537,22 +534,22 @@
     <t>Mean difference</t>
   </si>
   <si>
-    <t>0.107***</t>
-  </si>
-  <si>
-    <t>0.337</t>
+    <t>0.106***</t>
+  </si>
+  <si>
+    <t>0.341</t>
   </si>
   <si>
     <t>-0.006***</t>
   </si>
   <si>
-    <t>0.028***</t>
-  </si>
-  <si>
-    <t>0.217***</t>
-  </si>
-  <si>
-    <t>0.146***</t>
+    <t>0.027***</t>
+  </si>
+  <si>
+    <t>0.219***</t>
+  </si>
+  <si>
+    <t>0.148***</t>
   </si>
   <si>
     <t>0.010***</t>
@@ -570,85 +567,94 @@
     <t>-0.004**</t>
   </si>
   <si>
+    <t>0.037***</t>
+  </si>
+  <si>
+    <t>0.012***</t>
+  </si>
+  <si>
+    <t>0.006***</t>
+  </si>
+  <si>
+    <t>0.057***</t>
+  </si>
+  <si>
+    <t>-0.000</t>
+  </si>
+  <si>
+    <t>-0.124***</t>
+  </si>
+  <si>
+    <t>0.110***</t>
+  </si>
+  <si>
+    <t>0.011***</t>
+  </si>
+  <si>
+    <t>0.001*</t>
+  </si>
+  <si>
+    <t>0.002***</t>
+  </si>
+  <si>
+    <t>0.018***</t>
+  </si>
+  <si>
+    <t>0.016***</t>
+  </si>
+  <si>
+    <t>-0.094***</t>
+  </si>
+  <si>
+    <t>0.004*</t>
+  </si>
+  <si>
+    <t>0.004***</t>
+  </si>
+  <si>
+    <t>0.063***</t>
+  </si>
+  <si>
+    <t>0.071***</t>
+  </si>
+  <si>
+    <t>0.002*</t>
+  </si>
+  <si>
+    <t>0.003***</t>
+  </si>
+  <si>
+    <t>0.000*</t>
+  </si>
+  <si>
+    <t>-0.005***</t>
+  </si>
+  <si>
+    <t>0.056***</t>
+  </si>
+  <si>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t>-0.010***</t>
+  </si>
+  <si>
+    <t>0.017***</t>
+  </si>
+  <si>
+    <t>0.015***</t>
+  </si>
+  <si>
     <t>0.038***</t>
   </si>
   <si>
-    <t>0.012***</t>
-  </si>
-  <si>
-    <t>0.006***</t>
-  </si>
-  <si>
-    <t>0.057***</t>
-  </si>
-  <si>
-    <t>-0.000</t>
-  </si>
-  <si>
-    <t>-0.124***</t>
-  </si>
-  <si>
-    <t>0.110***</t>
-  </si>
-  <si>
-    <t>0.011***</t>
-  </si>
-  <si>
-    <t>0.001*</t>
-  </si>
-  <si>
-    <t>0.002***</t>
-  </si>
-  <si>
-    <t>0.018***</t>
-  </si>
-  <si>
-    <t>0.016***</t>
-  </si>
-  <si>
-    <t>-0.094***</t>
-  </si>
-  <si>
-    <t>0.004***</t>
-  </si>
-  <si>
-    <t>0.063***</t>
-  </si>
-  <si>
-    <t>0.071***</t>
-  </si>
-  <si>
-    <t>0.002*</t>
-  </si>
-  <si>
-    <t>0.003***</t>
-  </si>
-  <si>
-    <t>0.000*</t>
-  </si>
-  <si>
-    <t>-0.005***</t>
-  </si>
-  <si>
-    <t>0.056***</t>
-  </si>
-  <si>
-    <t>-0.001</t>
-  </si>
-  <si>
-    <t>-0.010***</t>
-  </si>
-  <si>
-    <t>0.015***</t>
-  </si>
-  <si>
-    <t>-0.145***</t>
+    <t>-0.146***</t>
   </si>
   <si>
     <t>0.008***</t>
   </si>
   <si>
-    <t>0.023***</t>
+    <t>0.024***</t>
   </si>
 </sst>
 </file>
@@ -712,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -735,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
@@ -764,7 +770,7 @@
         <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -778,16 +784,16 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -824,16 +830,16 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -870,16 +876,16 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -916,16 +922,16 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -942,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -962,16 +968,16 @@
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -988,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1008,16 +1014,16 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
@@ -1054,13 +1060,13 @@
         <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
         <v>82</v>
@@ -1100,16 +1106,16 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -1146,16 +1152,16 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -1192,16 +1198,16 @@
         <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
@@ -1238,16 +1244,16 @@
         <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -1284,16 +1290,16 @@
         <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
@@ -1330,13 +1336,13 @@
         <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
         <v>102</v>
@@ -1376,16 +1382,16 @@
         <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
@@ -1422,16 +1428,16 @@
         <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1468,16 +1474,16 @@
         <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35">
@@ -1514,16 +1520,16 @@
         <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37">
@@ -1560,16 +1566,16 @@
         <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
         <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
@@ -1606,16 +1612,16 @@
         <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
@@ -1632,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -1652,16 +1658,16 @@
         <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43">
@@ -1678,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -1698,16 +1704,16 @@
         <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45">
@@ -1744,16 +1750,16 @@
         <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47">
@@ -1790,16 +1796,16 @@
         <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
         <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
@@ -1836,16 +1842,16 @@
         <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51">
@@ -1882,16 +1888,16 @@
         <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53">
@@ -1928,16 +1934,16 @@
         <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55">
@@ -1974,16 +1980,16 @@
         <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57">
@@ -2020,16 +2026,16 @@
         <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59">
@@ -2066,13 +2072,13 @@
         <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G60" t="s">
         <v>198</v>
@@ -2112,16 +2118,16 @@
         <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63">
@@ -2158,13 +2164,13 @@
         <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G64" t="s">
         <v>199</v>
@@ -2204,13 +2210,13 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" t="s">
         <v>200</v>
@@ -2250,13 +2256,13 @@
         <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G68" t="s">
         <v>201</v>
@@ -2296,13 +2302,13 @@
         <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G70" t="s">
         <v>202</v>
@@ -2342,13 +2348,13 @@
         <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
         <v>103</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G72" t="s">
         <v>82</v>
@@ -2388,13 +2394,13 @@
         <v>82</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74" t="s">
         <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G74" t="s">
         <v>203</v>
@@ -2431,19 +2437,19 @@
         <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77">
@@ -2480,13 +2486,13 @@
         <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G78" t="s">
         <v>202</v>
@@ -2523,16 +2529,16 @@
         <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G80" t="s">
         <v>204</v>
@@ -2569,16 +2575,16 @@
         <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G82" t="s">
         <v>205</v>
@@ -2615,19 +2621,19 @@
         <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G84" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -2644,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -2661,16 +2667,16 @@
         <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G86" t="s">
         <v>82</v>
@@ -2710,16 +2716,16 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
         <v>91</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89">
@@ -2756,16 +2762,16 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91">
@@ -2802,16 +2808,16 @@
         <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
@@ -2845,16 +2851,16 @@
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G94" t="s">
         <v>198</v>
@@ -2891,16 +2897,16 @@
         <v>65</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G96" t="s">
         <v>206</v>
@@ -2937,16 +2943,16 @@
         <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G98" t="s">
         <v>207</v>
@@ -2983,19 +2989,19 @@
         <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101">
@@ -3029,19 +3035,19 @@
         <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G102" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
@@ -3075,19 +3081,19 @@
         <v>65</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
@@ -3124,16 +3130,16 @@
         <v>95</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G106" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107">
@@ -3170,16 +3176,16 @@
         <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
         <v>99</v>
       </c>
       <c r="F108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109">
@@ -3213,19 +3219,19 @@
         <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G110" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111">
@@ -3259,19 +3265,19 @@
         <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113">
@@ -3305,19 +3311,19 @@
         <v>65</v>
       </c>
       <c r="C114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G114" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115">
@@ -3334,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
@@ -3354,16 +3360,16 @@
         <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117">
@@ -3400,13 +3406,13 @@
         <v>93</v>
       </c>
       <c r="D118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" t="s">
         <v>93</v>
       </c>
       <c r="F118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G118" t="s">
         <v>82</v>
@@ -3443,19 +3449,19 @@
         <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E120" t="s">
         <v>95</v>
       </c>
       <c r="F120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121">
@@ -3492,16 +3498,16 @@
         <v>104</v>
       </c>
       <c r="D122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G122" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123">
